--- a/public/Status Summary Source File.xlsx
+++ b/public/Status Summary Source File.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kotzbauer/expense_management_analytics-RMT-v2/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED111F0-CAF4-804C-8080-D7D8BB133163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EABD93-3047-2246-BE9A-F753ED3DEEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1840" yWindow="2240" windowWidth="28240" windowHeight="16020" xr2:uid="{E6CB5503-5085-A640-BB68-6722C76E813E}"/>
+    <workbookView xWindow="4440" yWindow="2240" windowWidth="25800" windowHeight="16020" xr2:uid="{E6CB5503-5085-A640-BB68-6722C76E813E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Total</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>July</t>
+  </si>
+  <si>
+    <t>Measures</t>
   </si>
 </sst>
 </file>
@@ -507,9 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FECB8AA-FBD7-9541-B5F0-05238F6D7C70}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -517,6 +518,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -571,7 +575,7 @@
         <v>933262.97000000009</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -651,7 +655,7 @@
       </c>
       <c r="D5" s="4">
         <f t="shared" si="1"/>
-        <v>-1.9442176226465928</v>
+        <v>-0.57888115061135248</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
@@ -714,7 +718,7 @@
         <v>117819.26000000001</v>
       </c>
       <c r="D7" s="2">
-        <v>231907.69000000003</v>
+        <v>124364</v>
       </c>
       <c r="E7" s="2">
         <v>96425.610000000015</v>
